--- a/Vertices_Weight_create/node_data.xlsx
+++ b/Vertices_Weight_create/node_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20925" windowHeight="9720"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -289,7 +289,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -759,7 +758,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -768,10 +767,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -780,7 +779,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -789,13 +788,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -904,20 +903,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1268,35 +1256,32 @@
   <sheetPr/>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="15.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="23.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="9.375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1304,13 +1289,13 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>1153.87110000011</v>
+      <c r="B2">
+        <v>11.5387110000011</v>
       </c>
       <c r="C2">
-        <v>1141.75160000101</v>
-      </c>
-      <c r="D2" s="2" t="s">
+        <v>11.4175160000101</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
@@ -1324,13 +1309,13 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>1181.76599999983</v>
+      <c r="B3">
+        <v>11.8176599999983</v>
       </c>
       <c r="C3">
-        <v>403.906700000167</v>
-      </c>
-      <c r="D3" s="2" t="s">
+        <v>4.03906700000167</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
@@ -1344,13 +1329,13 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>1662.9991999995</v>
+      <c r="B4">
+        <v>16.629991999995</v>
       </c>
       <c r="C4">
-        <v>1658.49019999988</v>
-      </c>
-      <c r="D4" s="2" t="s">
+        <v>16.5849019999988</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
@@ -1364,13 +1349,13 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>1897.59649999999</v>
+      <c r="B5">
+        <v>18.9759649999999</v>
       </c>
       <c r="C5">
-        <v>2352.11629999988</v>
-      </c>
-      <c r="D5" s="2" t="s">
+        <v>23.5211629999988</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
@@ -1384,13 +1369,13 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>2139.38769999985</v>
+      <c r="B6">
+        <v>21.3938769999985</v>
       </c>
       <c r="C6">
-        <v>1368.06709999964</v>
-      </c>
-      <c r="D6" s="2" t="s">
+        <v>13.6806709999964</v>
+      </c>
+      <c r="D6" t="s">
         <v>14</v>
       </c>
       <c r="E6" t="s">
@@ -1404,13 +1389,13 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>2340.02099999972</v>
+      <c r="B7">
+        <v>23.4002099999972</v>
       </c>
       <c r="C7">
-        <v>1483.82010000013</v>
-      </c>
-      <c r="D7" s="2" t="s">
+        <v>14.8382010000013</v>
+      </c>
+      <c r="D7" t="s">
         <v>16</v>
       </c>
       <c r="E7" t="s">
@@ -1424,13 +1409,13 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>2525.24270000029</v>
+      <c r="B8">
+        <v>25.2524270000029</v>
       </c>
       <c r="C8">
-        <v>1245.57520000078</v>
-      </c>
-      <c r="D8" s="2" t="s">
+        <v>12.4557520000078</v>
+      </c>
+      <c r="D8" t="s">
         <v>18</v>
       </c>
       <c r="E8" t="s">
@@ -1444,13 +1429,13 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>2579.19049999956</v>
+      <c r="B9">
+        <v>25.7919049999956</v>
       </c>
       <c r="C9">
-        <v>342.684800000861</v>
-      </c>
-      <c r="D9" s="2" t="s">
+        <v>3.42684800000861</v>
+      </c>
+      <c r="D9" t="s">
         <v>20</v>
       </c>
       <c r="E9" t="s">
@@ -1464,13 +1449,13 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>2591.10740000009</v>
+      <c r="B10">
+        <v>25.9110740000009</v>
       </c>
       <c r="C10">
-        <v>614.475899999961</v>
-      </c>
-      <c r="D10" s="2" t="s">
+        <v>6.14475899999961</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10" t="s">
@@ -1484,13 +1469,13 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>2687.45249999967</v>
+      <c r="B11">
+        <v>26.8745249999967</v>
       </c>
       <c r="C11">
-        <v>2994.66420000046</v>
-      </c>
-      <c r="D11" s="2" t="s">
+        <v>29.9466420000046</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
       <c r="E11" t="s">
@@ -1504,13 +1489,13 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <v>2804.25420000032</v>
+      <c r="B12">
+        <v>28.0425420000032</v>
       </c>
       <c r="C12">
-        <v>1758.63599999994</v>
-      </c>
-      <c r="D12" s="2" t="s">
+        <v>17.5863599999994</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
       </c>
       <c r="E12" t="s">
@@ -1524,13 +1509,13 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>2967.86890000012</v>
+      <c r="B13">
+        <v>29.6786890000012</v>
       </c>
       <c r="C13">
-        <v>921.542899999768</v>
-      </c>
-      <c r="D13" s="2" t="s">
+        <v>9.21542899999768</v>
+      </c>
+      <c r="D13" t="s">
         <v>28</v>
       </c>
       <c r="E13" t="s">
@@ -1544,13 +1529,13 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
-        <v>2969.56209999975</v>
+      <c r="B14">
+        <v>29.6956209999975</v>
       </c>
       <c r="C14">
-        <v>2606.6501000002</v>
-      </c>
-      <c r="D14" s="2" t="s">
+        <v>26.066501000002</v>
+      </c>
+      <c r="D14" t="s">
         <v>30</v>
       </c>
       <c r="E14" t="s">
@@ -1564,11 +1549,11 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
-        <v>3076.15359999985</v>
+      <c r="B15">
+        <v>30.7615359999985</v>
       </c>
       <c r="C15">
-        <v>3371.26160000078</v>
+        <v>33.7126160000078</v>
       </c>
       <c r="D15" t="s">
         <v>32</v>
@@ -1584,11 +1569,11 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
-        <v>3105.89850000013</v>
+      <c r="B16">
+        <v>31.0589850000013</v>
       </c>
       <c r="C16">
-        <v>671.327600000426</v>
+        <v>6.71327600000426</v>
       </c>
       <c r="D16" t="s">
         <v>34</v>
@@ -1604,11 +1589,11 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
-        <v>3132.40220000036</v>
+      <c r="B17">
+        <v>31.3240220000036</v>
       </c>
       <c r="C17">
-        <v>2421.95450000092</v>
+        <v>24.2195450000092</v>
       </c>
       <c r="D17" t="s">
         <v>36</v>
@@ -1624,11 +1609,11 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
-        <v>3141.87600000016</v>
+      <c r="B18">
+        <v>31.4187600000016</v>
       </c>
       <c r="C18">
-        <v>182.882799999788</v>
+        <v>1.82882799999788</v>
       </c>
       <c r="D18" t="s">
         <v>38</v>
@@ -1644,11 +1629,11 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
-        <v>3358.33509999979</v>
+      <c r="B19">
+        <v>33.5833509999979</v>
       </c>
       <c r="C19">
-        <v>2165.84349999949</v>
+        <v>21.6584349999949</v>
       </c>
       <c r="D19" t="s">
         <v>40</v>
@@ -1664,11 +1649,11 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
-        <v>3411.86149999965</v>
+      <c r="B20">
+        <v>34.1186149999965</v>
       </c>
       <c r="C20">
-        <v>3015.09580000117</v>
+        <v>30.1509580000117</v>
       </c>
       <c r="D20" t="s">
         <v>42</v>
@@ -1684,11 +1669,11 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
-        <v>3272.35400000028</v>
+      <c r="B21">
+        <v>32.7235400000028</v>
       </c>
       <c r="C21">
-        <v>1849.15540000051</v>
+        <v>18.4915540000051</v>
       </c>
       <c r="D21" t="s">
         <v>44</v>
@@ -1704,11 +1689,11 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
-        <v>3533.72229999956</v>
+      <c r="B22">
+        <v>35.3372229999956</v>
       </c>
       <c r="C22">
-        <v>844.56760000065</v>
+        <v>8.4456760000065</v>
       </c>
       <c r="D22" t="s">
         <v>46</v>
@@ -1724,11 +1709,11 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
-        <v>3608.33999999985</v>
+      <c r="B23">
+        <v>36.0833999999985</v>
       </c>
       <c r="C23">
-        <v>1195.26879999973</v>
+        <v>11.9526879999973</v>
       </c>
       <c r="D23" t="s">
         <v>48</v>
@@ -1744,11 +1729,11 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
-        <v>3665.18479999993</v>
+      <c r="B24">
+        <v>36.6518479999993</v>
       </c>
       <c r="C24">
-        <v>1744.56640000083</v>
+        <v>17.4456640000083</v>
       </c>
       <c r="D24" t="s">
         <v>50</v>
@@ -1764,11 +1749,11 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
-        <v>3767.37949999981</v>
+      <c r="B25">
+        <v>37.6737949999981</v>
       </c>
       <c r="C25">
-        <v>2602.35539999977</v>
+        <v>26.0235539999977</v>
       </c>
       <c r="D25" t="s">
         <v>52</v>
@@ -1784,11 +1769,11 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
-        <v>3845.99839999992</v>
+      <c r="B26">
+        <v>38.4599839999992</v>
       </c>
       <c r="C26">
-        <v>1469.94099999964</v>
+        <v>14.6994099999964</v>
       </c>
       <c r="D26" t="s">
         <v>54</v>
@@ -1804,11 +1789,11 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
-        <v>4174.15799999982</v>
+      <c r="B27">
+        <v>41.7415799999982</v>
       </c>
       <c r="C27">
-        <v>1246.20790000074</v>
+        <v>12.4620790000074</v>
       </c>
       <c r="D27" t="s">
         <v>56</v>
@@ -1824,11 +1809,11 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
-        <v>4175.0446999995</v>
+      <c r="B28">
+        <v>41.750446999995</v>
       </c>
       <c r="C28">
-        <v>2642.597000001</v>
+        <v>26.42597000001</v>
       </c>
       <c r="D28" t="s">
         <v>58</v>
@@ -1844,11 +1829,11 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
-        <v>4227.01470000017</v>
+      <c r="B29">
+        <v>42.2701470000017</v>
       </c>
       <c r="C29">
-        <v>3350.07730000094</v>
+        <v>33.5007730000094</v>
       </c>
       <c r="D29" t="s">
         <v>60</v>
@@ -1864,11 +1849,11 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="1">
-        <v>4323.98209999967</v>
+      <c r="B30">
+        <v>43.2398209999967</v>
       </c>
       <c r="C30">
-        <v>2326.53030000068</v>
+        <v>23.2653030000068</v>
       </c>
       <c r="D30" t="s">
         <v>62</v>
@@ -1884,11 +1869,11 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="1">
-        <v>4468.95289999992</v>
+      <c r="B31">
+        <v>44.6895289999992</v>
       </c>
       <c r="C31">
-        <v>4180.09740000032</v>
+        <v>41.8009740000032</v>
       </c>
       <c r="D31" t="s">
         <v>64</v>
@@ -1904,11 +1889,11 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="1">
-        <v>4492.45490000024</v>
+      <c r="B32">
+        <v>44.9245490000024</v>
       </c>
       <c r="C32">
-        <v>893.782700000331</v>
+        <v>8.93782700000331</v>
       </c>
       <c r="D32" t="s">
         <v>66</v>
@@ -1924,11 +1909,11 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="1">
-        <v>4637.19479999971</v>
+      <c r="B33">
+        <v>46.3719479999971</v>
       </c>
       <c r="C33">
-        <v>720.242700001225</v>
+        <v>7.20242700001225</v>
       </c>
       <c r="D33" t="s">
         <v>68</v>
@@ -1944,11 +1929,11 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="1">
-        <v>4638.18969999999</v>
+      <c r="B34">
+        <v>46.3818969999999</v>
       </c>
       <c r="C34">
-        <v>2017.44959999993</v>
+        <v>20.1744959999993</v>
       </c>
       <c r="D34" t="s">
         <v>70</v>
@@ -1964,13 +1949,13 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="1">
-        <v>4825.88679999951</v>
+      <c r="B35">
+        <v>48.2588679999951</v>
       </c>
       <c r="C35">
-        <v>2752.64860000089</v>
-      </c>
-      <c r="D35" s="2" t="s">
+        <v>27.5264860000089</v>
+      </c>
+      <c r="D35" t="s">
         <v>72</v>
       </c>
       <c r="E35" t="s">
@@ -1984,11 +1969,11 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="1">
-        <v>5046.24209999945</v>
+      <c r="B36">
+        <v>50.4624209999945</v>
       </c>
       <c r="C36">
-        <v>267.955400001258</v>
+        <v>2.67955400001258</v>
       </c>
       <c r="D36" t="s">
         <v>74</v>
@@ -2004,11 +1989,11 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="1">
-        <v>5168.90599999949</v>
+      <c r="B37">
+        <v>51.6890599999949</v>
       </c>
       <c r="C37">
-        <v>3023.23259999976</v>
+        <v>30.2323259999976</v>
       </c>
       <c r="D37" t="s">
         <v>76</v>
@@ -2024,11 +2009,11 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="1">
-        <v>5260.13169999979</v>
+      <c r="B38">
+        <v>52.6013169999979</v>
       </c>
       <c r="C38">
-        <v>2215.31259999983</v>
+        <v>22.1531259999983</v>
       </c>
       <c r="D38" t="s">
         <v>78</v>
@@ -2044,11 +2029,11 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="1">
-        <v>6376.09619999956</v>
+      <c r="B39">
+        <v>63.7609619999956</v>
       </c>
       <c r="C39">
-        <v>2060.23310000077</v>
+        <v>20.6023310000077</v>
       </c>
       <c r="D39" t="s">
         <v>80</v>
@@ -2061,9 +2046,6 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C87">
-    <sortCondition ref="B2"/>
-  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/Vertices_Weight_create/node_data.xlsx
+++ b/Vertices_Weight_create/node_data.xlsx
@@ -273,7 +273,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,13 +284,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -758,48 +751,51 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -809,97 +805,94 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1257,12 +1250,15 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="3" max="3" width="9.375"/>
+    <col min="2" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="19.125" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="8.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
